--- a/input/dictionary/SMBP DAK_core data dictionary.xlsx
+++ b/input/dictionary/SMBP DAK_core data dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/DigitalAcceleratorKits/Shared Documents/Self-care Digital Accelerator Kit/Upload GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHO\GitHub\smart-dak-SMBP\input\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{AF494038-C0C9-4A8A-92CD-3DA9678C0BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05767181-2039-4B83-9222-BC212C38297B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B4F705-831E-40F3-8711-7F05FF52D393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-6900" windowWidth="29016" windowHeight="15816" activeTab="2" xr2:uid="{7420FDFB-9445-F344-8B0B-C04445E945E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7420FDFB-9445-F344-8B0B-C04445E945E7}"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="3" r:id="rId1"/>
@@ -5263,6 +5263,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="56" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5357,9 +5360,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9564,14 +9564,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9609,7 +9605,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9715,7 +9711,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9857,7 +9853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9870,227 +9866,225 @@
   </sheetPr>
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.09765625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="13"/>
-    <col min="3" max="3" width="17.09765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="13"/>
+    <col min="1" max="1" width="29.08203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="13"/>
+    <col min="3" max="3" width="17.08203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" style="13"/>
     <col min="6" max="6" width="8.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="13"/>
-    <col min="8" max="8" width="13.19921875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.59765625" style="13"/>
+    <col min="7" max="7" width="8.58203125" style="13"/>
+    <col min="8" max="8" width="13.1640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="1.58203125" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="159" t="s">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="94.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="160" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="15.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="162"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="163"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="162"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="163"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="158"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="146" t="s">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="147" t="s">
         <v>827</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="149" t="s">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="150" t="s">
         <v>825</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="151"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="152"/>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="381.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152" t="s">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="381.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="153" t="s">
         <v>828</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="155"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="137"/>
       <c r="B20" s="137"/>
       <c r="C20" s="137"/>
@@ -10101,7 +10095,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="137"/>
       <c r="B21" s="137"/>
       <c r="C21" s="137"/>
@@ -10112,7 +10106,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="137"/>
       <c r="B22" s="137"/>
       <c r="C22" s="137"/>
@@ -10123,7 +10117,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="137"/>
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
@@ -10134,21 +10128,21 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="43.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="137"/>
       <c r="B24" s="137"/>
       <c r="C24" s="137"/>
       <c r="D24" s="137"/>
       <c r="E24" s="137"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="137"/>
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
       <c r="D25" s="137"/>
       <c r="E25" s="137"/>
     </row>
-    <row r="26" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J26" s="4"/>
     </row>
   </sheetData>
@@ -10183,40 +10177,40 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.9140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.4140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="89.5" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.09765625" style="5"/>
+    <col min="5" max="16384" width="9.08203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
     </row>
-    <row r="3" spans="1:4" ht="208.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="208.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>652</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
     </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5" s="10" t="s">
         <v>547</v>
@@ -10228,7 +10222,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6" s="56" t="s">
         <v>3</v>
@@ -10238,7 +10232,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7" s="11" t="s">
         <v>655</v>
@@ -10248,7 +10242,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8"/>
       <c r="B8" s="58" t="s">
         <v>21</v>
@@ -10258,7 +10252,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="B9" s="57" t="s">
         <v>22</v>
@@ -10268,7 +10262,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10" s="57" t="s">
         <v>23</v>
@@ -10278,9 +10272,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11"/>
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="61"/>
@@ -10288,9 +10282,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12"/>
-      <c r="B12" s="168"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
@@ -10298,9 +10292,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13"/>
-      <c r="B13" s="168"/>
+      <c r="B13" s="169"/>
       <c r="C13" s="11" t="s">
         <v>5</v>
       </c>
@@ -10308,9 +10302,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14"/>
-      <c r="B14" s="168"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
@@ -10318,9 +10312,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15"/>
-      <c r="B15" s="168"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
@@ -10328,9 +10322,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16"/>
-      <c r="B16" s="168"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
@@ -10338,9 +10332,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17"/>
-      <c r="B17" s="168"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
@@ -10348,9 +10342,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A18"/>
-      <c r="B18" s="168"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="65" t="s">
         <v>10</v>
       </c>
@@ -10358,9 +10352,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19"/>
-      <c r="B19" s="168"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="11" t="s">
         <v>11</v>
       </c>
@@ -10368,9 +10362,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20"/>
-      <c r="B20" s="168"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
@@ -10378,9 +10372,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21"/>
-      <c r="B21" s="168"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="11" t="s">
         <v>168</v>
       </c>
@@ -10388,9 +10382,9 @@
         <v>562</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22"/>
-      <c r="B22" s="168"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="65" t="s">
         <v>169</v>
       </c>
@@ -10398,9 +10392,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23"/>
-      <c r="B23" s="168"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="11" t="s">
         <v>150</v>
       </c>
@@ -10408,15 +10402,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="170" t="s">
+      <c r="B24" s="170"/>
+      <c r="C24" s="171" t="s">
         <v>565</v>
       </c>
-      <c r="D24" s="171"/>
+      <c r="D24" s="172"/>
     </row>
-    <row r="25" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25" s="61" t="s">
         <v>537</v>
@@ -10426,9 +10420,9 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26"/>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="173" t="s">
         <v>567</v>
       </c>
       <c r="C26" s="61"/>
@@ -10436,9 +10430,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27"/>
-      <c r="B27" s="173"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
@@ -10446,9 +10440,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28"/>
-      <c r="B28" s="173"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
@@ -10456,9 +10450,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29"/>
-      <c r="B29" s="174"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="56" t="s">
         <v>17</v>
       </c>
@@ -10466,7 +10460,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30"/>
       <c r="B30" s="57" t="s">
         <v>13</v>
@@ -10476,7 +10470,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31"/>
       <c r="B31" s="61" t="s">
         <v>26</v>
@@ -10486,9 +10480,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32"/>
-      <c r="B32" s="175" t="s">
+      <c r="B32" s="176" t="s">
         <v>538</v>
       </c>
       <c r="C32" s="61"/>
@@ -10496,9 +10490,9 @@
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33"/>
-      <c r="B33" s="176"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="11" t="s">
         <v>18</v>
       </c>
@@ -10506,9 +10500,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34"/>
-      <c r="B34" s="176"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
@@ -10516,9 +10510,9 @@
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35"/>
-      <c r="B35" s="176"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="11" t="s">
         <v>20</v>
       </c>
@@ -10526,15 +10520,15 @@
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
-      <c r="B36" s="177"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="56"/>
       <c r="D36" s="72" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="131.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="131.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="6" t="s">
         <v>539</v>
@@ -10544,7 +10538,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="57" t="s">
         <v>580</v>
@@ -10554,7 +10548,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="6" t="s">
         <v>540</v>
@@ -10564,7 +10558,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="57" t="s">
         <v>583</v>
@@ -10574,7 +10568,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41" s="57" t="s">
         <v>585</v>
@@ -10584,7 +10578,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42"/>
       <c r="B42" s="73" t="s">
         <v>587</v>
@@ -10594,7 +10588,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="6" t="s">
         <v>151</v>
@@ -10604,7 +10598,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44"/>
       <c r="B44" s="61" t="s">
         <v>590</v>
@@ -10614,7 +10608,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45"/>
       <c r="B45" s="75" t="s">
         <v>592</v>
@@ -10624,7 +10618,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46"/>
       <c r="B46" s="75" t="s">
         <v>594</v>
@@ -10634,7 +10628,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47"/>
       <c r="B47" s="78" t="s">
         <v>596</v>
@@ -10644,9 +10638,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="164" t="s">
         <v>598</v>
       </c>
       <c r="C48" s="79"/>
@@ -10654,9 +10648,9 @@
         <v>599</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49"/>
-      <c r="B49" s="164"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="81" t="s">
         <v>212</v>
       </c>
@@ -10664,9 +10658,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50"/>
-      <c r="B50" s="164"/>
+      <c r="B50" s="165"/>
       <c r="C50" s="81" t="s">
         <v>213</v>
       </c>
@@ -10674,9 +10668,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51"/>
-      <c r="B51" s="164"/>
+      <c r="B51" s="165"/>
       <c r="C51" s="81" t="s">
         <v>214</v>
       </c>
@@ -10684,9 +10678,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52"/>
-      <c r="B52" s="164"/>
+      <c r="B52" s="165"/>
       <c r="C52" s="81" t="s">
         <v>215</v>
       </c>
@@ -10694,7 +10688,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53"/>
       <c r="B53" s="83" t="s">
         <v>604</v>
@@ -10725,37 +10719,37 @@
   </sheetPr>
   <dimension ref="A1:AV73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1:AS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="86" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="86" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="25" style="86" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="88" customWidth="1"/>
-    <col min="5" max="5" width="38.3984375" style="88" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" style="86" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" style="88" customWidth="1"/>
+    <col min="5" max="5" width="38.4140625" style="88" customWidth="1"/>
+    <col min="6" max="6" width="20.4140625" style="86" customWidth="1"/>
     <col min="7" max="7" width="14" style="86" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" style="86" customWidth="1"/>
-    <col min="9" max="9" width="30.59765625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="23.58203125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="86" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="86" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" style="86" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="86" customWidth="1"/>
     <col min="12" max="13" width="24.5" style="86" customWidth="1"/>
-    <col min="14" max="14" width="21.8984375" style="86" customWidth="1"/>
-    <col min="15" max="16" width="18.09765625" style="86" customWidth="1"/>
-    <col min="17" max="17" width="77.59765625" style="86" customWidth="1"/>
-    <col min="18" max="40" width="30.59765625" style="88" customWidth="1"/>
-    <col min="41" max="43" width="30.59765625" style="89" customWidth="1"/>
-    <col min="44" max="44" width="30.59765625" style="88" customWidth="1"/>
-    <col min="45" max="48" width="30.59765625" style="86" customWidth="1"/>
-    <col min="49" max="16384" width="10.59765625" style="86"/>
+    <col min="14" max="14" width="21.9140625" style="86" customWidth="1"/>
+    <col min="15" max="16" width="18.08203125" style="86" customWidth="1"/>
+    <col min="17" max="17" width="77.58203125" style="86" customWidth="1"/>
+    <col min="18" max="40" width="30.58203125" style="88" customWidth="1"/>
+    <col min="41" max="43" width="30.58203125" style="89" customWidth="1"/>
+    <col min="44" max="44" width="30.58203125" style="88" customWidth="1"/>
+    <col min="45" max="48" width="30.58203125" style="86" customWidth="1"/>
+    <col min="49" max="16384" width="10.58203125" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10861,34 +10855,34 @@
       <c r="AI1" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="AJ1" s="178" t="s">
+      <c r="AJ1" s="146" t="s">
         <v>614</v>
       </c>
-      <c r="AK1" s="178" t="s">
+      <c r="AK1" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="AL1" s="178" t="s">
+      <c r="AL1" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="178" t="s">
+      <c r="AM1" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="AN1" s="178" t="s">
+      <c r="AN1" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="AO1" s="178" t="s">
+      <c r="AO1" s="146" t="s">
         <v>615</v>
       </c>
-      <c r="AP1" s="178" t="s">
+      <c r="AP1" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="AQ1" s="178" t="s">
+      <c r="AQ1" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="AR1" s="178" t="s">
+      <c r="AR1" s="146" t="s">
         <v>202</v>
       </c>
-      <c r="AS1" s="178" t="s">
+      <c r="AS1" s="146" t="s">
         <v>829</v>
       </c>
       <c r="AT1" s="87" t="s">
@@ -10901,7 +10895,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>656</v>
       </c>
@@ -10988,7 +10982,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>656</v>
       </c>
@@ -11065,7 +11059,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>656</v>
       </c>
@@ -11142,7 +11136,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>656</v>
       </c>
@@ -11222,7 +11216,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>656</v>
       </c>
@@ -11299,7 +11293,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>656</v>
       </c>
@@ -11379,7 +11373,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>656</v>
       </c>
@@ -11459,7 +11453,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>656</v>
       </c>
@@ -11536,7 +11530,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>656</v>
       </c>
@@ -11616,7 +11610,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" s="12" customFormat="1" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>656</v>
       </c>
@@ -11697,7 +11691,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>656</v>
       </c>
@@ -11771,7 +11765,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>656</v>
       </c>
@@ -11794,7 +11788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>656</v>
       </c>
@@ -11870,7 +11864,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>656</v>
       </c>
@@ -11950,7 +11944,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>656</v>
       </c>
@@ -12033,7 +12027,7 @@
       </c>
       <c r="AV16" s="39"/>
     </row>
-    <row r="17" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>656</v>
       </c>
@@ -12112,7 +12106,7 @@
       </c>
       <c r="AV17" s="39"/>
     </row>
-    <row r="18" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>656</v>
       </c>
@@ -12177,7 +12171,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:48" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>656</v>
       </c>
@@ -12254,7 +12248,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>656</v>
       </c>
@@ -12331,7 +12325,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>656</v>
       </c>
@@ -12417,7 +12411,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>656</v>
       </c>
@@ -12495,7 +12489,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:48" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>656</v>
       </c>
@@ -12563,7 +12557,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>656</v>
       </c>
@@ -12625,7 +12619,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>656</v>
       </c>
@@ -12703,7 +12697,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>656</v>
       </c>
@@ -12771,7 +12765,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>656</v>
       </c>
@@ -12833,7 +12827,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>656</v>
       </c>
@@ -12911,7 +12905,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>656</v>
       </c>
@@ -12979,7 +12973,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>656</v>
       </c>
@@ -13047,7 +13041,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>656</v>
       </c>
@@ -13125,7 +13119,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>656</v>
       </c>
@@ -13194,7 +13188,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:48" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>656</v>
       </c>
@@ -13232,7 +13226,7 @@
       <c r="AP33" s="48"/>
       <c r="AQ33" s="48"/>
     </row>
-    <row r="34" spans="1:48" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>656</v>
       </c>
@@ -13315,7 +13309,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="35" spans="1:48" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>656</v>
       </c>
@@ -13398,7 +13392,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="36" spans="1:48" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>656</v>
       </c>
@@ -13475,7 +13469,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="37" spans="1:48" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>656</v>
       </c>
@@ -13552,7 +13546,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:48" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>656</v>
       </c>
@@ -13590,7 +13584,7 @@
       <c r="AP38" s="48"/>
       <c r="AQ38" s="48"/>
     </row>
-    <row r="39" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>656</v>
       </c>
@@ -13663,7 +13657,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>656</v>
       </c>
@@ -13736,7 +13730,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>656</v>
       </c>
@@ -13823,7 +13817,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>656</v>
       </c>
@@ -13910,7 +13904,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>656</v>
       </c>
@@ -13982,7 +13976,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:48" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>656</v>
       </c>
@@ -14023,7 +14017,7 @@
       <c r="AP44" s="48"/>
       <c r="AQ44" s="48"/>
     </row>
-    <row r="45" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>656</v>
       </c>
@@ -14096,7 +14090,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>656</v>
       </c>
@@ -14169,7 +14163,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>656</v>
       </c>
@@ -14276,7 +14270,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>656</v>
       </c>
@@ -14378,7 +14372,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>656</v>
       </c>
@@ -14483,7 +14477,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>656</v>
       </c>
@@ -14553,7 +14547,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:48" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>656</v>
       </c>
@@ -14637,7 +14631,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="52" spans="1:48" s="24" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" s="24" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>656</v>
       </c>
@@ -14669,7 +14663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>656</v>
       </c>
@@ -14731,7 +14725,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>656</v>
       </c>
@@ -14793,7 +14787,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>656</v>
       </c>
@@ -14828,7 +14822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" s="12" customFormat="1" ht="85.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>656</v>
       </c>
@@ -14899,7 +14893,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>656</v>
       </c>
@@ -14979,7 +14973,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>656</v>
       </c>
@@ -15059,7 +15053,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="1:48" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:48" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>656</v>
       </c>
@@ -15091,7 +15085,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="60" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>656</v>
       </c>
@@ -15150,7 +15144,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="1:48" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:48" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>656</v>
       </c>
@@ -15209,7 +15203,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="1:48" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:48" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>656</v>
       </c>
@@ -15268,7 +15262,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:48" s="24" customFormat="1" ht="70.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:48" s="24" customFormat="1" ht="70.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="s">
         <v>656</v>
       </c>
@@ -15345,7 +15339,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:48" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:48" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>656</v>
       </c>
@@ -15416,7 +15410,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>656</v>
       </c>
@@ -15496,7 +15490,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>656</v>
       </c>
@@ -15567,7 +15561,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>656</v>
       </c>
@@ -15650,7 +15644,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>656</v>
       </c>
@@ -15730,7 +15724,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>656</v>
       </c>
@@ -15801,7 +15795,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>656</v>
       </c>
@@ -15881,7 +15875,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>656</v>
       </c>
@@ -15952,7 +15946,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>656</v>
       </c>
@@ -16035,7 +16029,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>656</v>
       </c>
@@ -16192,31 +16186,31 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="20" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="27" style="20" customWidth="1"/>
     <col min="4" max="4" width="27" style="20"/>
-    <col min="5" max="5" width="38.09765625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="29.09765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.09765625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="25.59765625" style="20" customWidth="1"/>
-    <col min="13" max="15" width="20.09765625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="16.8984375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="38.08203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="17.58203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="29.08203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.08203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="25.58203125" style="20" customWidth="1"/>
+    <col min="13" max="15" width="20.08203125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="16.9140625" style="20" customWidth="1"/>
     <col min="17" max="17" width="42.5" style="20" customWidth="1"/>
-    <col min="18" max="22" width="30.59765625" style="36" customWidth="1"/>
-    <col min="23" max="26" width="30.59765625" style="20" customWidth="1"/>
-    <col min="27" max="40" width="30.59765625" style="36" customWidth="1"/>
-    <col min="41" max="44" width="30.59765625" style="40" customWidth="1"/>
+    <col min="18" max="22" width="30.58203125" style="36" customWidth="1"/>
+    <col min="23" max="26" width="30.58203125" style="20" customWidth="1"/>
+    <col min="27" max="40" width="30.58203125" style="36" customWidth="1"/>
+    <col min="41" max="44" width="30.58203125" style="40" customWidth="1"/>
     <col min="45" max="16384" width="27" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="27" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="27" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -16350,7 +16344,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>659</v>
       </c>
@@ -24610,7 +24604,7 @@
       <c r="XFC2" s="28"/>
       <c r="XFD2" s="12"/>
     </row>
-    <row r="3" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>659</v>
       </c>
@@ -24701,7 +24695,7 @@
       </c>
       <c r="AR3" s="45"/>
     </row>
-    <row r="4" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>659</v>
       </c>
@@ -24792,7 +24786,7 @@
       </c>
       <c r="AR4" s="45"/>
     </row>
-    <row r="5" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>659</v>
       </c>
@@ -24886,7 +24880,7 @@
       </c>
       <c r="AR5" s="45"/>
     </row>
-    <row r="6" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>659</v>
       </c>
@@ -24977,7 +24971,7 @@
       </c>
       <c r="AR6" s="45"/>
     </row>
-    <row r="7" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>659</v>
       </c>
@@ -25068,7 +25062,7 @@
       </c>
       <c r="AR7" s="45"/>
     </row>
-    <row r="8" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>659</v>
       </c>
@@ -25162,7 +25156,7 @@
       </c>
       <c r="AR8" s="45"/>
     </row>
-    <row r="9" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="30" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>659</v>
       </c>
@@ -25229,7 +25223,7 @@
       <c r="AQ9" s="46"/>
       <c r="AR9" s="46"/>
     </row>
-    <row r="10" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>659</v>
       </c>
@@ -25310,7 +25304,7 @@
       </c>
       <c r="AR10" s="45"/>
     </row>
-    <row r="11" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>659</v>
       </c>
@@ -25395,7 +25389,7 @@
       </c>
       <c r="AR11" s="45"/>
     </row>
-    <row r="12" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>659</v>
       </c>
@@ -25480,7 +25474,7 @@
       </c>
       <c r="AR12" s="45"/>
     </row>
-    <row r="13" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>659</v>
       </c>
@@ -25558,7 +25552,7 @@
       </c>
       <c r="AR13" s="45"/>
     </row>
-    <row r="14" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>659</v>
       </c>
@@ -25620,7 +25614,7 @@
       <c r="AQ14" s="46"/>
       <c r="AR14" s="46"/>
     </row>
-    <row r="15" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>659</v>
       </c>
@@ -25698,7 +25692,7 @@
       </c>
       <c r="AR15" s="45"/>
     </row>
-    <row r="16" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024 1027:2048 2051:3072 3075:4096 4099:5120 5123:6144 6147:7168 7171:8192 8195:9216 9219:10240 10243:11264 11267:12288 12291:13312 13315:14336 14339:15360 15363:16384" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>659</v>
       </c>
@@ -25776,7 +25770,7 @@
       </c>
       <c r="AR16" s="45"/>
     </row>
-    <row r="17" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>659</v>
       </c>
@@ -25854,7 +25848,7 @@
       </c>
       <c r="AR17" s="45"/>
     </row>
-    <row r="18" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>659</v>
       </c>
@@ -25932,7 +25926,7 @@
       </c>
       <c r="AR18" s="45"/>
     </row>
-    <row r="19" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>659</v>
       </c>
@@ -26010,7 +26004,7 @@
       </c>
       <c r="AR19" s="45"/>
     </row>
-    <row r="20" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>659</v>
       </c>
@@ -26088,7 +26082,7 @@
       </c>
       <c r="AR20" s="45"/>
     </row>
-    <row r="21" spans="1:44" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>659</v>
       </c>
@@ -26147,7 +26141,7 @@
       <c r="AQ21" s="46"/>
       <c r="AR21" s="46"/>
     </row>
-    <row r="22" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>659</v>
       </c>
@@ -26225,7 +26219,7 @@
       </c>
       <c r="AR22" s="45"/>
     </row>
-    <row r="23" spans="1:44" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>659</v>
       </c>
@@ -26303,7 +26297,7 @@
       </c>
       <c r="AR23" s="45"/>
     </row>
-    <row r="24" spans="1:44" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>659</v>
       </c>
@@ -26381,7 +26375,7 @@
       </c>
       <c r="AR24" s="45"/>
     </row>
-    <row r="25" spans="1:44" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>659</v>
       </c>
@@ -26440,7 +26434,7 @@
       <c r="AQ25" s="46"/>
       <c r="AR25" s="46"/>
     </row>
-    <row r="26" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>659</v>
       </c>
@@ -26518,7 +26512,7 @@
       </c>
       <c r="AR26" s="45"/>
     </row>
-    <row r="27" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>659</v>
       </c>
@@ -26596,7 +26590,7 @@
       </c>
       <c r="AR27" s="45"/>
     </row>
-    <row r="28" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>659</v>
       </c>
@@ -26674,7 +26668,7 @@
       </c>
       <c r="AR28" s="45"/>
     </row>
-    <row r="29" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>659</v>
       </c>
@@ -26752,7 +26746,7 @@
       </c>
       <c r="AR29" s="45"/>
     </row>
-    <row r="30" spans="1:44" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>659</v>
       </c>
@@ -26811,7 +26805,7 @@
       <c r="AQ30" s="46"/>
       <c r="AR30" s="46"/>
     </row>
-    <row r="31" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>659</v>
       </c>
@@ -26889,7 +26883,7 @@
       </c>
       <c r="AR31" s="45"/>
     </row>
-    <row r="32" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>659</v>
       </c>
@@ -26967,7 +26961,7 @@
       </c>
       <c r="AR32" s="45"/>
     </row>
-    <row r="33" spans="1:44" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>659</v>
       </c>
@@ -27045,7 +27039,7 @@
       </c>
       <c r="AR33" s="45"/>
     </row>
-    <row r="34" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>659</v>
       </c>
@@ -27123,7 +27117,7 @@
       </c>
       <c r="AR34" s="45"/>
     </row>
-    <row r="35" spans="1:44" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>659</v>
       </c>
@@ -27182,7 +27176,7 @@
       <c r="AQ35" s="46"/>
       <c r="AR35" s="46"/>
     </row>
-    <row r="36" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>659</v>
       </c>
@@ -27256,7 +27250,7 @@
       <c r="AQ36" s="45"/>
       <c r="AR36" s="45"/>
     </row>
-    <row r="37" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
         <v>659</v>
       </c>
@@ -27330,7 +27324,7 @@
       <c r="AQ37" s="45"/>
       <c r="AR37" s="45"/>
     </row>
-    <row r="38" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>659</v>
       </c>
@@ -27404,7 +27398,7 @@
       <c r="AQ38" s="45"/>
       <c r="AR38" s="45"/>
     </row>
-    <row r="39" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
         <v>659</v>
       </c>
@@ -27478,7 +27472,7 @@
       <c r="AQ39" s="45"/>
       <c r="AR39" s="45"/>
     </row>
-    <row r="40" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>659</v>
       </c>
@@ -27556,7 +27550,7 @@
       </c>
       <c r="AR40" s="45"/>
     </row>
-    <row r="41" spans="1:44" s="30" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" s="30" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>659</v>
       </c>
@@ -27617,7 +27611,7 @@
       <c r="AQ41" s="46"/>
       <c r="AR41" s="46"/>
     </row>
-    <row r="42" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
         <v>659</v>
       </c>
@@ -27693,7 +27687,7 @@
       </c>
       <c r="AR42" s="45"/>
     </row>
-    <row r="43" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>659</v>
       </c>
@@ -27784,7 +27778,7 @@
       </c>
       <c r="AR43" s="45"/>
     </row>
-    <row r="44" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>659</v>
       </c>
@@ -27875,7 +27869,7 @@
       </c>
       <c r="AR44" s="45"/>
     </row>
-    <row r="45" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>659</v>
       </c>
@@ -27966,7 +27960,7 @@
       </c>
       <c r="AR45" s="45"/>
     </row>
-    <row r="46" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>659</v>
       </c>
@@ -28057,7 +28051,7 @@
       </c>
       <c r="AR46" s="45"/>
     </row>
-    <row r="47" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>659</v>
       </c>
@@ -28148,7 +28142,7 @@
       </c>
       <c r="AR47" s="45"/>
     </row>
-    <row r="48" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>659</v>
       </c>
@@ -28239,7 +28233,7 @@
       </c>
       <c r="AR48" s="45"/>
     </row>
-    <row r="49" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
         <v>659</v>
       </c>
@@ -28330,7 +28324,7 @@
       </c>
       <c r="AR49" s="45"/>
     </row>
-    <row r="50" spans="1:44" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>659</v>
       </c>
@@ -28423,7 +28417,7 @@
       </c>
       <c r="AR50" s="45"/>
     </row>
-    <row r="51" spans="1:44" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
         <v>659</v>
       </c>
@@ -28577,20 +28571,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="65.09765625" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="11.09765625" style="14"/>
+    <col min="1" max="1" width="2.58203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="2.58203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="65.08203125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="11.08203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="34">
         <v>1</v>
       </c>
@@ -28601,7 +28595,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="34">
         <f>B2+1</f>
         <v>2</v>
@@ -28613,7 +28607,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="39" x14ac:dyDescent="0.35">
       <c r="B4" s="34">
         <v>3</v>
       </c>
@@ -28624,7 +28618,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="52" x14ac:dyDescent="0.35">
       <c r="B5" s="34">
         <v>4</v>
       </c>
@@ -28635,7 +28629,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="39" x14ac:dyDescent="0.35">
       <c r="B6" s="34">
         <v>5</v>
       </c>
@@ -28908,15 +28902,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
@@ -28925,6 +28910,15 @@
     <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28947,14 +28941,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B04540B1-3646-4951-88BC-BF178E1C216F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325BDCEF-9DA6-4CB1-B0A7-CA69E18E942C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -28971,4 +28957,12 @@
     <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B04540B1-3646-4951-88BC-BF178E1C216F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>